--- a/AUTOMATION/Hybrid_KeywordDriven_FW/Keywords/ActionsKeywords.xlsx
+++ b/AUTOMATION/Hybrid_KeywordDriven_FW/Keywords/ActionsKeywords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SIMPLII\SIMPLII_AUTOMATION\AUTOMATION\Hybrid_KeywordDriven_FW\Keywords\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304C851-ED2E-4AC6-974A-54DABC690DEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C2260E-A594-4AFC-B71A-2E58A2E7A5E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
